--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3CBD4-482A-4214-A37F-3E1BC5921268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD902FF4-C85F-4409-A93F-604FC1D2DD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,332 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>ターゲット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示方法</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウジホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要な知識</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計方針</t>
+    <rPh sb="0" eb="4">
+      <t>セッケイホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理方針</t>
+    <rPh sb="0" eb="4">
+      <t>カンリホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装方針</t>
+    <rPh sb="0" eb="4">
+      <t>ジッソウホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用言語</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cocos-2dx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnrealEngine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態遷移図</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フローチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歳</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タワーディフェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎解き</t>
+    <rPh sb="0" eb="2">
+      <t>ナゾト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発環境の知識</t>
+    <rPh sb="0" eb="4">
+      <t>カイハツカンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <rPh sb="0" eb="2">
+      <t>スウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見下ろし型</t>
+    <rPh sb="0" eb="2">
+      <t>ミオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人称</t>
+    <rPh sb="0" eb="3">
+      <t>イチニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三人称</t>
+    <rPh sb="0" eb="3">
+      <t>サンニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横スクロール</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦スクロール</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>疑似２D型（２．５D）</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン管理ツール</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２D／３D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画書</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計書</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュール管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文書</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト指向</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理法則の計算</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリホウソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベクトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディープラーニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -58,12 +384,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -344,14 +811,1055 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="3" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="BB5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="3"/>
+    </row>
+    <row r="6" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="6"/>
+    </row>
+    <row r="7" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="BC7" s="7"/>
+    </row>
+    <row r="8" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="8"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="9"/>
+      <c r="CG8" s="9"/>
+      <c r="CH8" s="9"/>
+      <c r="CI8" s="9"/>
+      <c r="CJ8" s="9"/>
+      <c r="CK8" s="9"/>
+      <c r="CL8" s="9"/>
+      <c r="CM8" s="9"/>
+      <c r="CN8" s="9"/>
+      <c r="CO8" s="9"/>
+    </row>
+    <row r="9" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="18"/>
+      <c r="AD9" s="10"/>
+      <c r="BE9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="CO9" s="17"/>
+    </row>
+    <row r="10" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="M10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="BD10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="3"/>
+      <c r="BT10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="3"/>
+      <c r="CN10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="3"/>
+    </row>
+    <row r="11" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+      <c r="AK11" s="10"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="6"/>
+      <c r="BT11" s="4"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="6"/>
+      <c r="CN11" s="4"/>
+      <c r="CO11" s="5"/>
+      <c r="CP11" s="5"/>
+      <c r="CQ11" s="6"/>
+    </row>
+    <row r="12" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AF12" s="10"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="17"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="17"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="9"/>
+      <c r="CI12" s="9"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="17"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
+      <c r="CS12" s="9"/>
+      <c r="CT12" s="9"/>
+      <c r="CU12" s="9"/>
+      <c r="CV12" s="9"/>
+      <c r="CW12" s="9"/>
+      <c r="CX12" s="9"/>
+    </row>
+    <row r="13" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="J13" s="8"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="AA13" s="17"/>
+      <c r="BA13" s="8"/>
+      <c r="BI13" s="17"/>
+      <c r="BR13" s="8"/>
+      <c r="BX13" s="17"/>
+      <c r="CF13" s="8"/>
+      <c r="CL13" s="17"/>
+      <c r="CR13" s="17"/>
+      <c r="CX13" s="17"/>
+    </row>
+    <row r="14" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="Z14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="3"/>
+      <c r="AZ14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="3"/>
+      <c r="BH14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="3"/>
+      <c r="BQ14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="3"/>
+      <c r="BW14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="3"/>
+      <c r="CE14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="CF14" s="2"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="3"/>
+      <c r="CK14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2"/>
+      <c r="CN14" s="3"/>
+      <c r="CQ14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR14" s="2"/>
+      <c r="CS14" s="2"/>
+      <c r="CT14" s="3"/>
+      <c r="CW14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX14" s="2"/>
+      <c r="CY14" s="2"/>
+      <c r="CZ14" s="3"/>
+    </row>
+    <row r="15" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="6"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="6"/>
+      <c r="BQ15" s="4"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="6"/>
+      <c r="BW15" s="4"/>
+      <c r="BX15" s="5"/>
+      <c r="BY15" s="5"/>
+      <c r="BZ15" s="6"/>
+      <c r="CE15" s="4"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="6"/>
+      <c r="CK15" s="4"/>
+      <c r="CL15" s="5"/>
+      <c r="CM15" s="5"/>
+      <c r="CN15" s="6"/>
+      <c r="CQ15" s="4"/>
+      <c r="CR15" s="5"/>
+      <c r="CS15" s="5"/>
+      <c r="CT15" s="6"/>
+      <c r="CW15" s="4"/>
+      <c r="CX15" s="5"/>
+      <c r="CY15" s="5"/>
+      <c r="CZ15" s="6"/>
+    </row>
+    <row r="16" spans="7:104" ht="20.100000000000001" customHeight="1">
+      <c r="J16" s="7"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="9"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="9"/>
+      <c r="BF16" s="9"/>
+      <c r="BG16" s="9"/>
+      <c r="BH16" s="9"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="9"/>
+      <c r="BR16" s="7"/>
+      <c r="BX16" s="7"/>
+      <c r="CF16" s="7"/>
+      <c r="CL16" s="7"/>
+      <c r="CR16" s="7"/>
+    </row>
+    <row r="17" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="J17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="X17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AR17" s="8"/>
+      <c r="AX17" s="8"/>
+      <c r="BD17" s="17"/>
+      <c r="BJ17" s="17"/>
+      <c r="BR17" s="8"/>
+      <c r="BX17" s="8"/>
+      <c r="CF17" s="8"/>
+      <c r="CL17" s="8"/>
+      <c r="CR17" s="8"/>
+    </row>
+    <row r="18" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="Q18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="13"/>
+      <c r="W18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
+      <c r="AC18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="13"/>
+      <c r="AI18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="13"/>
+      <c r="AQ18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="3"/>
+      <c r="AW18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="3"/>
+      <c r="BC18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="3"/>
+      <c r="BI18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="3"/>
+      <c r="BQ18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="3"/>
+      <c r="BW18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="3"/>
+      <c r="CE18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="3"/>
+      <c r="CK18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CN18" s="3"/>
+      <c r="CQ18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="CR18" s="12"/>
+      <c r="CS18" s="12"/>
+      <c r="CT18" s="13"/>
+    </row>
+    <row r="19" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="16"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="16"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="6"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="6"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="6"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="6"/>
+      <c r="BQ19" s="4"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="6"/>
+      <c r="BW19" s="4"/>
+      <c r="BX19" s="5"/>
+      <c r="BY19" s="5"/>
+      <c r="BZ19" s="6"/>
+      <c r="CE19" s="4"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="6"/>
+      <c r="CK19" s="4"/>
+      <c r="CL19" s="5"/>
+      <c r="CM19" s="5"/>
+      <c r="CN19" s="6"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="15"/>
+      <c r="CS19" s="15"/>
+      <c r="CT19" s="16"/>
+    </row>
+    <row r="22" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="BQ22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="3"/>
+      <c r="BW22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BX22" s="2"/>
+      <c r="BY22" s="2"/>
+      <c r="BZ22" s="3"/>
+    </row>
+    <row r="23" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="BQ23" s="4"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="6"/>
+      <c r="BW23" s="4"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="6"/>
+    </row>
+    <row r="24" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="BQ25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="3"/>
+    </row>
+    <row r="26" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="BQ26" s="4"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="6"/>
+    </row>
+    <row r="28" spans="1:106" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="20"/>
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="20"/>
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="20"/>
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="20"/>
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="20"/>
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="20"/>
+      <c r="BW28" s="20"/>
+      <c r="BX28" s="20"/>
+      <c r="BY28" s="20"/>
+      <c r="BZ28" s="20"/>
+      <c r="CA28" s="20"/>
+      <c r="CB28" s="20"/>
+      <c r="CC28" s="20"/>
+      <c r="CD28" s="20"/>
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="20"/>
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
+      <c r="CP28" s="20"/>
+      <c r="CQ28" s="20"/>
+      <c r="CR28" s="20"/>
+      <c r="CS28" s="20"/>
+      <c r="CT28" s="20"/>
+      <c r="CU28" s="20"/>
+      <c r="CV28" s="20"/>
+      <c r="CW28" s="20"/>
+      <c r="CX28" s="20"/>
+      <c r="CY28" s="20"/>
+      <c r="CZ28" s="20"/>
+      <c r="DA28" s="20"/>
+      <c r="DB28" s="20"/>
+    </row>
+    <row r="33" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
+    </row>
+    <row r="34" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BE34" s="10"/>
+      <c r="BF34" s="10"/>
+      <c r="BG34" s="10"/>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
+    </row>
+    <row r="38" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="2"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="10"/>
+      <c r="BK38" s="10"/>
+      <c r="BL38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="3"/>
+      <c r="BR38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="3"/>
+    </row>
+    <row r="39" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF39" s="4"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="6"/>
+      <c r="BL39" s="4"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="6"/>
+      <c r="BR39" s="4"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="6"/>
+    </row>
+    <row r="40" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF40" s="10"/>
+      <c r="BG40" s="10"/>
+      <c r="BH40" s="10"/>
+      <c r="BR40" s="10"/>
+      <c r="BS40" s="10"/>
+    </row>
+    <row r="41" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
+      <c r="BH41" s="10"/>
+      <c r="BK41" s="10"/>
+      <c r="BR41" s="10"/>
+      <c r="BS41" s="10"/>
+    </row>
+    <row r="42" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="3"/>
+      <c r="BK42" s="10"/>
+      <c r="BL42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="3"/>
+      <c r="BR42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="3"/>
+    </row>
+    <row r="43" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF43" s="4"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="6"/>
+      <c r="BK43" s="10"/>
+      <c r="BL43" s="4"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="6"/>
+      <c r="BR43" s="4"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="6"/>
+    </row>
+    <row r="44" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BG44" s="10"/>
+      <c r="BH44" s="10"/>
+      <c r="BI44" s="10"/>
+      <c r="BJ44" s="10"/>
+      <c r="BK44" s="10"/>
+    </row>
+    <row r="45" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF45" s="9"/>
+      <c r="BG45" s="9"/>
+      <c r="BK45" s="10"/>
+      <c r="BR45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BS45" s="2"/>
+      <c r="BT45" s="2"/>
+      <c r="BU45" s="3"/>
+    </row>
+    <row r="46" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="3"/>
+      <c r="BR46" s="4"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="6"/>
+    </row>
+    <row r="47" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BF47" s="4"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="6"/>
+    </row>
+    <row r="48" spans="57:73" ht="20.100000000000001" customHeight="1">
+      <c r="BR48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS48" s="2"/>
+      <c r="BT48" s="2"/>
+      <c r="BU48" s="3"/>
+    </row>
+    <row r="49" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="3"/>
+      <c r="BR49" s="4"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="6"/>
+    </row>
+    <row r="50" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF50" s="4"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="6"/>
+    </row>
+    <row r="51" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BR51" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS51" s="12"/>
+      <c r="BT51" s="12"/>
+      <c r="BU51" s="13"/>
+    </row>
+    <row r="52" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="2"/>
+      <c r="BI52" s="3"/>
+      <c r="BR52" s="14"/>
+      <c r="BS52" s="15"/>
+      <c r="BT52" s="15"/>
+      <c r="BU52" s="16"/>
+    </row>
+    <row r="53" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF53" s="4"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="6"/>
+    </row>
+    <row r="54" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BR54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BS54" s="12"/>
+      <c r="BT54" s="12"/>
+      <c r="BU54" s="13"/>
+    </row>
+    <row r="55" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BR55" s="14"/>
+      <c r="BS55" s="15"/>
+      <c r="BT55" s="15"/>
+      <c r="BU55" s="16"/>
+    </row>
+    <row r="56" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="2"/>
+      <c r="BI56" s="3"/>
+    </row>
+    <row r="57" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="5"/>
+      <c r="BH57" s="5"/>
+      <c r="BI57" s="6"/>
+      <c r="BR57" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS57" s="12"/>
+      <c r="BT57" s="12"/>
+      <c r="BU57" s="13"/>
+      <c r="BW57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX57" s="12"/>
+      <c r="BY57" s="12"/>
+      <c r="BZ57" s="13"/>
+    </row>
+    <row r="58" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BR58" s="14"/>
+      <c r="BS58" s="15"/>
+      <c r="BT58" s="15"/>
+      <c r="BU58" s="16"/>
+      <c r="BW58" s="14"/>
+      <c r="BX58" s="15"/>
+      <c r="BY58" s="15"/>
+      <c r="BZ58" s="16"/>
+    </row>
+    <row r="59" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="2"/>
+      <c r="BI59" s="3"/>
+    </row>
+    <row r="60" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="5"/>
+      <c r="BI60" s="6"/>
+    </row>
+    <row r="61" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BR61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS61" s="2"/>
+      <c r="BT61" s="2"/>
+      <c r="BU61" s="3"/>
+    </row>
+    <row r="62" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF62" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="13"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="5"/>
+      <c r="BT62" s="5"/>
+      <c r="BU62" s="6"/>
+    </row>
+    <row r="63" spans="58:78" ht="20.100000000000001" customHeight="1">
+      <c r="BF63" s="14"/>
+      <c r="BG63" s="15"/>
+      <c r="BH63" s="15"/>
+      <c r="BI63" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="CE18:CH19"/>
+    <mergeCell ref="CK18:CN19"/>
+    <mergeCell ref="CQ18:CT19"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="I18:L19"/>
+    <mergeCell ref="Q18:T19"/>
+    <mergeCell ref="W18:Z19"/>
+    <mergeCell ref="AI18:AL19"/>
+    <mergeCell ref="AC18:AF19"/>
+    <mergeCell ref="CQ14:CT15"/>
+    <mergeCell ref="CW14:CZ15"/>
+    <mergeCell ref="CK14:CN15"/>
+    <mergeCell ref="CE14:CH15"/>
+    <mergeCell ref="BH14:BK15"/>
+    <mergeCell ref="BF62:BI63"/>
+    <mergeCell ref="BF56:BI57"/>
+    <mergeCell ref="BF59:BI60"/>
+    <mergeCell ref="BF49:BI50"/>
+    <mergeCell ref="BF52:BI53"/>
+    <mergeCell ref="BR45:BU46"/>
+    <mergeCell ref="BR48:BU49"/>
+    <mergeCell ref="BR51:BU52"/>
+    <mergeCell ref="BR54:BU55"/>
+    <mergeCell ref="BR57:BU58"/>
+    <mergeCell ref="BW57:BZ58"/>
+    <mergeCell ref="BQ22:BT23"/>
+    <mergeCell ref="BQ25:BT26"/>
+    <mergeCell ref="BW18:BZ19"/>
+    <mergeCell ref="BW22:BZ23"/>
+    <mergeCell ref="AZ14:BC15"/>
+    <mergeCell ref="AQ18:AT19"/>
+    <mergeCell ref="BI18:BL19"/>
+    <mergeCell ref="BC18:BF19"/>
+    <mergeCell ref="AW18:AZ19"/>
+    <mergeCell ref="BR61:BU62"/>
+    <mergeCell ref="BQ14:BT15"/>
+    <mergeCell ref="BR38:BU39"/>
+    <mergeCell ref="BF42:BI43"/>
+    <mergeCell ref="BT10:BW11"/>
+    <mergeCell ref="BW14:BZ15"/>
+    <mergeCell ref="BQ18:BT19"/>
+    <mergeCell ref="BR42:BU43"/>
+    <mergeCell ref="BF46:BI47"/>
+    <mergeCell ref="BB5:BE6"/>
+    <mergeCell ref="BL38:BO39"/>
+    <mergeCell ref="BD10:BG11"/>
+    <mergeCell ref="BF38:BI39"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="CN10:CQ11"/>
+    <mergeCell ref="BL42:BO43"/>
+    <mergeCell ref="Z14:AC15"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE7F8AF-8EEE-4B75-9076-A122F05C9C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8F34E9-FED2-4FC6-A56B-487549E3C7E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5655" yWindow="900" windowWidth="21495" windowHeight="11250" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究" sheetId="1" r:id="rId1"/>
     <sheet name="ゲーム概要" sheetId="4" r:id="rId2"/>
     <sheet name="スロットについて" sheetId="9" r:id="rId3"/>
-    <sheet name="状態遷移図" sheetId="6" r:id="rId4"/>
+    <sheet name="スロットについて (2)" sheetId="12" r:id="rId4"/>
+    <sheet name="状態遷移図" sheetId="6" r:id="rId5"/>
+    <sheet name="スケジュール表" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="143">
   <si>
     <t>ターゲット</t>
     <phoneticPr fontId="1"/>
@@ -496,6 +498,535 @@
   </si>
   <si>
     <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場規模</t>
+    <rPh sb="0" eb="4">
+      <t>シジョウキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>約20兆円</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立性</t>
+    <rPh sb="0" eb="3">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規投入少ない</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>比較的独立性を保てる</t>
+    <rPh sb="0" eb="3">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立性の確保</t>
+    <rPh sb="0" eb="3">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題を出題</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常時／高確率／超高確率</t>
+    <rPh sb="0" eb="3">
+      <t>ツウジョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>コウカクリツ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>チョウコウカクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT中</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出題方法</t>
+    <rPh sb="0" eb="4">
+      <t>シュツダイホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答方法</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３レーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３択・スロットのボタン式</t>
+    <rPh sb="1" eb="2">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続を賭けた問題</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーチ時に出題</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定スケジュール表</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>企画</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設計</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーディング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デバッグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料作成</t>
+    <rPh sb="0" eb="4">
+      <t>シリョウサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レベルデザイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実績スケジュール表</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベットボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベットボタン押されているか</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リールが回転されているか</t>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レバーが動く</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リール動かす</t>
+    <rPh sb="3" eb="4">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リールが動いているか</t>
+    <rPh sb="4" eb="5">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンが凹む</t>
+    <rPh sb="4" eb="5">
+      <t>ヘコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リールを止める</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンを押したか</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインがあるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤く光る</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインを減らす</t>
+    <rPh sb="4" eb="5">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転可能状態にする</t>
+    <rPh sb="0" eb="6">
+      <t>カイテンカノウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図柄の回転</t>
+    <rPh sb="0" eb="2">
+      <t>ズガラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて止まった時図柄判定</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ズガラハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出画面</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて止まっているか</t>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図柄がそろっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ズガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研究によって得られる知識</t>
+    <rPh sb="0" eb="2">
+      <t>ケンキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーミフィケーションの効果</t>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のスロットの人気度</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニンキド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記憶に残りやすいか</t>
+    <rPh sb="0" eb="2">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習できているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学習の継続しやすいか</t>
+    <rPh sb="0" eb="2">
+      <t>ガクシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれだけ獲得できるか</t>
+    <rPh sb="4" eb="6">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランキングで競わせる</t>
+    <rPh sb="6" eb="7">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出を派手にする</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイン増減</t>
+    <rPh sb="3" eb="5">
+      <t>ゾウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細ボタン押されたか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,7 +1034,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,16 +1049,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -705,11 +1255,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -720,6 +1371,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -756,13 +1459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2123,8 +2819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW34" sqref="AV34:AW34"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2143,18 +2839,18 @@
     <row r="5" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="BB5" s="16" t="s">
+      <c r="BB5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="BC5" s="17"/>
-      <c r="BD5" s="17"/>
-      <c r="BE5" s="18"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="40"/>
     </row>
     <row r="6" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="21"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="43"/>
     </row>
     <row r="7" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="BC7" s="1"/>
@@ -2260,52 +2956,52 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="BD10" s="16" t="s">
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="BD10" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="18"/>
-      <c r="BT10" s="16" t="s">
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="40"/>
+      <c r="BT10" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="18"/>
-      <c r="CN10" s="16" t="s">
+      <c r="BU10" s="39"/>
+      <c r="BV10" s="39"/>
+      <c r="BW10" s="40"/>
+      <c r="CN10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="CO10" s="17"/>
-      <c r="CP10" s="17"/>
-      <c r="CQ10" s="18"/>
+      <c r="CO10" s="39"/>
+      <c r="CP10" s="39"/>
+      <c r="CQ10" s="40"/>
     </row>
     <row r="11" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
       <c r="AK11" s="4"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="20"/>
-      <c r="BF11" s="20"/>
-      <c r="BG11" s="21"/>
-      <c r="BT11" s="19"/>
-      <c r="BU11" s="20"/>
-      <c r="BV11" s="20"/>
-      <c r="BW11" s="21"/>
-      <c r="CN11" s="19"/>
-      <c r="CO11" s="20"/>
-      <c r="CP11" s="20"/>
-      <c r="CQ11" s="21"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="42"/>
+      <c r="BG11" s="43"/>
+      <c r="BT11" s="41"/>
+      <c r="BU11" s="42"/>
+      <c r="BV11" s="42"/>
+      <c r="BW11" s="43"/>
+      <c r="CN11" s="41"/>
+      <c r="CO11" s="42"/>
+      <c r="CP11" s="42"/>
+      <c r="CQ11" s="43"/>
     </row>
     <row r="12" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="I12" s="4"/>
@@ -2376,110 +3072,110 @@
       <c r="CX13" s="5"/>
     </row>
     <row r="14" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="18"/>
-      <c r="AZ14" s="16" t="s">
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="40"/>
+      <c r="AZ14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="18"/>
-      <c r="BH14" s="16" t="s">
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="40"/>
+      <c r="BH14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="18"/>
-      <c r="BQ14" s="16" t="s">
+      <c r="BI14" s="39"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="40"/>
+      <c r="BQ14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="BR14" s="17"/>
-      <c r="BS14" s="17"/>
-      <c r="BT14" s="18"/>
-      <c r="BW14" s="16" t="s">
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="39"/>
+      <c r="BT14" s="40"/>
+      <c r="BW14" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="BX14" s="17"/>
-      <c r="BY14" s="17"/>
-      <c r="BZ14" s="18"/>
-      <c r="CE14" s="16" t="s">
+      <c r="BX14" s="39"/>
+      <c r="BY14" s="39"/>
+      <c r="BZ14" s="40"/>
+      <c r="CE14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="CF14" s="17"/>
-      <c r="CG14" s="17"/>
-      <c r="CH14" s="18"/>
-      <c r="CK14" s="16" t="s">
+      <c r="CF14" s="39"/>
+      <c r="CG14" s="39"/>
+      <c r="CH14" s="40"/>
+      <c r="CK14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="CL14" s="17"/>
-      <c r="CM14" s="17"/>
-      <c r="CN14" s="18"/>
-      <c r="CQ14" s="16" t="s">
+      <c r="CL14" s="39"/>
+      <c r="CM14" s="39"/>
+      <c r="CN14" s="40"/>
+      <c r="CQ14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="CR14" s="17"/>
-      <c r="CS14" s="17"/>
-      <c r="CT14" s="18"/>
-      <c r="CW14" s="16" t="s">
+      <c r="CR14" s="39"/>
+      <c r="CS14" s="39"/>
+      <c r="CT14" s="40"/>
+      <c r="CW14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="CX14" s="17"/>
-      <c r="CY14" s="17"/>
-      <c r="CZ14" s="18"/>
+      <c r="CX14" s="39"/>
+      <c r="CY14" s="39"/>
+      <c r="CZ14" s="40"/>
     </row>
     <row r="15" spans="7:104" ht="20.100000000000001" customHeight="1">
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="21"/>
-      <c r="AZ15" s="19"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="20"/>
-      <c r="BC15" s="21"/>
-      <c r="BH15" s="19"/>
-      <c r="BI15" s="20"/>
-      <c r="BJ15" s="20"/>
-      <c r="BK15" s="21"/>
-      <c r="BQ15" s="19"/>
-      <c r="BR15" s="20"/>
-      <c r="BS15" s="20"/>
-      <c r="BT15" s="21"/>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="20"/>
-      <c r="BY15" s="20"/>
-      <c r="BZ15" s="21"/>
-      <c r="CE15" s="19"/>
-      <c r="CF15" s="20"/>
-      <c r="CG15" s="20"/>
-      <c r="CH15" s="21"/>
-      <c r="CK15" s="19"/>
-      <c r="CL15" s="20"/>
-      <c r="CM15" s="20"/>
-      <c r="CN15" s="21"/>
-      <c r="CQ15" s="19"/>
-      <c r="CR15" s="20"/>
-      <c r="CS15" s="20"/>
-      <c r="CT15" s="21"/>
-      <c r="CW15" s="19"/>
-      <c r="CX15" s="20"/>
-      <c r="CY15" s="20"/>
-      <c r="CZ15" s="21"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="43"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="42"/>
+      <c r="BC15" s="43"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="43"/>
+      <c r="BQ15" s="41"/>
+      <c r="BR15" s="42"/>
+      <c r="BS15" s="42"/>
+      <c r="BT15" s="43"/>
+      <c r="BW15" s="41"/>
+      <c r="BX15" s="42"/>
+      <c r="BY15" s="42"/>
+      <c r="BZ15" s="43"/>
+      <c r="CE15" s="41"/>
+      <c r="CF15" s="42"/>
+      <c r="CG15" s="42"/>
+      <c r="CH15" s="43"/>
+      <c r="CK15" s="41"/>
+      <c r="CL15" s="42"/>
+      <c r="CM15" s="42"/>
+      <c r="CN15" s="43"/>
+      <c r="CQ15" s="41"/>
+      <c r="CR15" s="42"/>
+      <c r="CS15" s="42"/>
+      <c r="CT15" s="43"/>
+      <c r="CW15" s="41"/>
+      <c r="CX15" s="42"/>
+      <c r="CY15" s="42"/>
+      <c r="CZ15" s="43"/>
     </row>
     <row r="16" spans="7:104" ht="20.100000000000001" customHeight="1">
       <c r="J16" s="1"/>
@@ -2542,148 +3238,148 @@
       <c r="CR17" s="2"/>
     </row>
     <row r="18" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-      <c r="Q18" s="10" t="s">
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+      <c r="Q18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
-      <c r="W18" s="10" t="s">
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="W18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="12"/>
-      <c r="AC18" s="10" t="s">
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="34"/>
+      <c r="AC18" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
-      <c r="AI18" s="10" t="s">
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34"/>
+      <c r="AI18" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="12"/>
-      <c r="AQ18" s="16" t="s">
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="34"/>
+      <c r="AQ18" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="18"/>
-      <c r="AW18" s="16" t="s">
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="40"/>
+      <c r="AW18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="18"/>
-      <c r="BC18" s="16" t="s">
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="40"/>
+      <c r="BC18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="18"/>
-      <c r="BI18" s="16" t="s">
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="40"/>
+      <c r="BI18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="18"/>
-      <c r="BQ18" s="16" t="s">
+      <c r="BJ18" s="39"/>
+      <c r="BK18" s="39"/>
+      <c r="BL18" s="40"/>
+      <c r="BQ18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="18"/>
-      <c r="BW18" s="16" t="s">
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="40"/>
+      <c r="BW18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="BX18" s="17"/>
-      <c r="BY18" s="17"/>
-      <c r="BZ18" s="18"/>
-      <c r="CE18" s="16" t="s">
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="39"/>
+      <c r="BZ18" s="40"/>
+      <c r="CE18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="CF18" s="17"/>
-      <c r="CG18" s="17"/>
-      <c r="CH18" s="18"/>
-      <c r="CK18" s="16" t="s">
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="40"/>
+      <c r="CK18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="18"/>
-      <c r="CQ18" s="10" t="s">
+      <c r="CL18" s="39"/>
+      <c r="CM18" s="39"/>
+      <c r="CN18" s="40"/>
+      <c r="CQ18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="CR18" s="11"/>
-      <c r="CS18" s="11"/>
-      <c r="CT18" s="12"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="34"/>
     </row>
     <row r="19" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="15"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="15"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="15"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="15"/>
-      <c r="AQ19" s="19"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
-      <c r="AT19" s="21"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="21"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="21"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="20"/>
-      <c r="BK19" s="20"/>
-      <c r="BL19" s="21"/>
-      <c r="BQ19" s="19"/>
-      <c r="BR19" s="20"/>
-      <c r="BS19" s="20"/>
-      <c r="BT19" s="21"/>
-      <c r="BW19" s="19"/>
-      <c r="BX19" s="20"/>
-      <c r="BY19" s="20"/>
-      <c r="BZ19" s="21"/>
-      <c r="CE19" s="19"/>
-      <c r="CF19" s="20"/>
-      <c r="CG19" s="20"/>
-      <c r="CH19" s="21"/>
-      <c r="CK19" s="19"/>
-      <c r="CL19" s="20"/>
-      <c r="CM19" s="20"/>
-      <c r="CN19" s="21"/>
-      <c r="CQ19" s="13"/>
-      <c r="CR19" s="14"/>
-      <c r="CS19" s="14"/>
-      <c r="CT19" s="15"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="37"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="37"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="37"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="37"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="43"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="43"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="43"/>
+      <c r="BI19" s="41"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="43"/>
+      <c r="BQ19" s="41"/>
+      <c r="BR19" s="42"/>
+      <c r="BS19" s="42"/>
+      <c r="BT19" s="43"/>
+      <c r="BW19" s="41"/>
+      <c r="BX19" s="42"/>
+      <c r="BY19" s="42"/>
+      <c r="BZ19" s="43"/>
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="42"/>
+      <c r="CG19" s="42"/>
+      <c r="CH19" s="43"/>
+      <c r="CK19" s="41"/>
+      <c r="CL19" s="42"/>
+      <c r="CM19" s="42"/>
+      <c r="CN19" s="43"/>
+      <c r="CQ19" s="35"/>
+      <c r="CR19" s="36"/>
+      <c r="CS19" s="36"/>
+      <c r="CT19" s="37"/>
     </row>
     <row r="21" spans="1:106" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="8"/>
@@ -2794,38 +3490,38 @@
       <c r="DB21" s="8"/>
     </row>
     <row r="23" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO23" s="16" t="s">
+      <c r="BO23" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="BP23" s="17"/>
-      <c r="BQ23" s="17"/>
-      <c r="BR23" s="18"/>
-      <c r="BT23" s="16" t="s">
+      <c r="BP23" s="39"/>
+      <c r="BQ23" s="39"/>
+      <c r="BR23" s="40"/>
+      <c r="BT23" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="BU23" s="17"/>
-      <c r="BV23" s="17"/>
-      <c r="BW23" s="18"/>
-      <c r="BZ23" s="16" t="s">
+      <c r="BU23" s="39"/>
+      <c r="BV23" s="39"/>
+      <c r="BW23" s="40"/>
+      <c r="BZ23" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="CA23" s="17"/>
-      <c r="CB23" s="17"/>
-      <c r="CC23" s="18"/>
+      <c r="CA23" s="39"/>
+      <c r="CB23" s="39"/>
+      <c r="CC23" s="40"/>
     </row>
     <row r="24" spans="1:106" ht="20.100000000000001" customHeight="1">
-      <c r="BO24" s="19"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="21"/>
-      <c r="BT24" s="19"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="21"/>
-      <c r="BZ24" s="19"/>
-      <c r="CA24" s="20"/>
-      <c r="CB24" s="20"/>
-      <c r="CC24" s="21"/>
+      <c r="BO24" s="41"/>
+      <c r="BP24" s="42"/>
+      <c r="BQ24" s="42"/>
+      <c r="BR24" s="43"/>
+      <c r="BT24" s="41"/>
+      <c r="BU24" s="42"/>
+      <c r="BV24" s="42"/>
+      <c r="BW24" s="43"/>
+      <c r="BZ24" s="41"/>
+      <c r="CA24" s="42"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2870,33 +3566,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B611C23-622C-42B5-A459-3D830E47DDC0}">
-  <dimension ref="D4:AO17"/>
+  <dimension ref="A4:CF25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M9"/>
+    <sheetView topLeftCell="Q1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="CG28" sqref="CG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
-    <row r="4" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="S4" s="16" t="s">
+    <row r="4" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="S4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="18"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
     </row>
-    <row r="5" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
+    <row r="5" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
     </row>
-    <row r="6" spans="4:41" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2923,59 +3619,101 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="4:41" ht="20.100000000000001" customHeight="1">
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+    </row>
+    <row r="7" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E7" s="2"/>
       <c r="K7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="AE7" s="5"/>
-    </row>
-    <row r="8" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D8" s="16" t="s">
+      <c r="AZ7" s="5"/>
+    </row>
+    <row r="8" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="D8" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="J8" s="16" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="J8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
-      <c r="P8" s="16" t="s">
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
+      <c r="P8" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="AD8" s="16" t="s">
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="AD8" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
+      <c r="AG8" s="34"/>
+      <c r="AY8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="40"/>
+      <c r="BW8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
+      <c r="BX8" s="39"/>
+      <c r="BY8" s="39"/>
+      <c r="BZ8" s="40"/>
+    </row>
+    <row r="9" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
       <c r="AC9" s="9"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="21"/>
-    </row>
-    <row r="10" spans="4:41" ht="20.100000000000001" customHeight="1">
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
+      <c r="BB9" s="43"/>
+      <c r="BW9" s="41"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="43"/>
+    </row>
+    <row r="10" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E10" s="1"/>
       <c r="K10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2989,8 +3727,9 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
-    </row>
-    <row r="11" spans="4:41" ht="20.100000000000001" customHeight="1">
+      <c r="AZ10" s="1"/>
+    </row>
+    <row r="11" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E11" s="2"/>
       <c r="K11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2999,62 +3738,93 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="2"/>
       <c r="AJ11" s="5"/>
-    </row>
-    <row r="12" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D12" s="16" t="s">
+      <c r="AZ11" s="2"/>
+    </row>
+    <row r="12" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="D12" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="J12" s="16" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="J12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="P12" s="16" t="s">
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="P12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-      <c r="Y12" s="10" t="s">
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="40"/>
+      <c r="Y12" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="12"/>
-      <c r="AI12" s="10" t="s">
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
+      <c r="AI12" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="12"/>
-    </row>
-    <row r="13" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="15"/>
-    </row>
-    <row r="14" spans="4:41" ht="20.100000000000001" customHeight="1">
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="34"/>
+      <c r="AY12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="40"/>
+      <c r="BR12" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="34"/>
+      <c r="CC12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="33"/>
+      <c r="CF12" s="34"/>
+    </row>
+    <row r="13" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="37"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="37"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="42"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="43"/>
+      <c r="BR13" s="35"/>
+      <c r="BS13" s="36"/>
+      <c r="BT13" s="36"/>
+      <c r="BU13" s="37"/>
+      <c r="CC13" s="35"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="36"/>
+      <c r="CF13" s="37"/>
+    </row>
+    <row r="14" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E14" s="1"/>
       <c r="K14" s="1"/>
       <c r="Q14" s="1"/>
@@ -3068,8 +3838,17 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
-    </row>
-    <row r="15" spans="4:41" ht="20.100000000000001" customHeight="1">
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+    </row>
+    <row r="15" spans="4:84" ht="20.100000000000001" customHeight="1">
       <c r="E15" s="2"/>
       <c r="K15" s="2"/>
       <c r="Q15" s="2"/>
@@ -3078,100 +3857,322 @@
       <c r="AB15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AM15" s="5"/>
-    </row>
-    <row r="16" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D16" s="16" t="s">
+      <c r="AV15" s="2"/>
+      <c r="BE15" s="5"/>
+    </row>
+    <row r="16" spans="4:84" ht="20.100000000000001" customHeight="1">
+      <c r="D16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="J16" s="16" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="J16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
-      <c r="P16" s="10" t="s">
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="P16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
-      <c r="V16" s="10" t="s">
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="V16" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="12"/>
-      <c r="AA16" s="10" t="s">
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="34"/>
+      <c r="AA16" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="12"/>
-      <c r="AG16" s="10" t="s">
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="34"/>
+      <c r="AG16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="12"/>
-      <c r="AL16" s="16" t="s">
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="33"/>
+      <c r="AJ16" s="34"/>
+      <c r="AL16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="18"/>
-    </row>
-    <row r="17" spans="4:41" ht="20.100000000000001" customHeight="1">
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="21"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="15"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="15"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="15"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="21"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="40"/>
+      <c r="AU16" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="40"/>
+      <c r="BD16" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="40"/>
+      <c r="BM16" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="34"/>
+      <c r="BR16" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS16" s="33"/>
+      <c r="BT16" s="33"/>
+      <c r="BU16" s="34"/>
+      <c r="BW16" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="34"/>
+    </row>
+    <row r="17" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="43"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="37"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="37"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="37"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="43"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="43"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="43"/>
+      <c r="BM17" s="35"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="37"/>
+      <c r="BR17" s="35"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="36"/>
+      <c r="BU17" s="37"/>
+      <c r="BW17" s="35"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="37"/>
+    </row>
+    <row r="18" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="BE18" s="1"/>
+    </row>
+    <row r="19" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="N19" s="5"/>
+      <c r="AS19" s="2"/>
+      <c r="AY19" s="5"/>
+      <c r="BE19" s="2"/>
+    </row>
+    <row r="20" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="G20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="M20" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40"/>
+      <c r="AR20" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS20" s="33"/>
+      <c r="AT20" s="33"/>
+      <c r="AU20" s="34"/>
+      <c r="AX20" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY20" s="33"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="34"/>
+      <c r="BD20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="34"/>
+      <c r="BM20" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN20" s="33"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="34"/>
+      <c r="BR20" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="34"/>
+      <c r="BW20" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="34"/>
+    </row>
+    <row r="21" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="37"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="37"/>
+      <c r="BD21" s="35"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="37"/>
+      <c r="BM21" s="35"/>
+      <c r="BN21" s="36"/>
+      <c r="BO21" s="36"/>
+      <c r="BP21" s="37"/>
+      <c r="BR21" s="35"/>
+      <c r="BS21" s="36"/>
+      <c r="BT21" s="36"/>
+      <c r="BU21" s="37"/>
+      <c r="BW21" s="35"/>
+      <c r="BX21" s="36"/>
+      <c r="BY21" s="36"/>
+      <c r="BZ21" s="37"/>
+    </row>
+    <row r="22" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="AS22" s="1"/>
+      <c r="AY22" s="1"/>
+    </row>
+    <row r="23" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="AS23" s="2"/>
+      <c r="AY23" s="2"/>
+    </row>
+    <row r="24" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="AR24" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="40"/>
+      <c r="AX24" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="34"/>
+      <c r="BR24" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="34"/>
+    </row>
+    <row r="25" spans="1:78" ht="20.100000000000001" customHeight="1">
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="42"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="43"/>
+      <c r="AX25" s="35"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="36"/>
+      <c r="BA25" s="37"/>
+      <c r="BR25" s="35"/>
+      <c r="BS25" s="36"/>
+      <c r="BT25" s="36"/>
+      <c r="BU25" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="38">
+    <mergeCell ref="BD20:BG21"/>
+    <mergeCell ref="M20:P21"/>
+    <mergeCell ref="AY8:BB9"/>
+    <mergeCell ref="AR24:AU25"/>
+    <mergeCell ref="G20:J21"/>
+    <mergeCell ref="AY12:BB13"/>
+    <mergeCell ref="AX24:BA25"/>
+    <mergeCell ref="AR20:AU21"/>
+    <mergeCell ref="AX20:BA21"/>
+    <mergeCell ref="AU16:AX17"/>
     <mergeCell ref="D8:G9"/>
     <mergeCell ref="J8:M9"/>
     <mergeCell ref="D12:G13"/>
     <mergeCell ref="J16:M17"/>
     <mergeCell ref="D16:G17"/>
     <mergeCell ref="J12:M13"/>
-    <mergeCell ref="Y12:AB13"/>
-    <mergeCell ref="AI12:AL13"/>
-    <mergeCell ref="AG16:AJ17"/>
-    <mergeCell ref="P8:S9"/>
-    <mergeCell ref="V16:Y17"/>
+    <mergeCell ref="BR20:BU21"/>
+    <mergeCell ref="BM20:BP21"/>
+    <mergeCell ref="BR24:BU25"/>
+    <mergeCell ref="BW20:BZ21"/>
     <mergeCell ref="S4:V5"/>
     <mergeCell ref="AD8:AG9"/>
     <mergeCell ref="AL16:AO17"/>
     <mergeCell ref="AA16:AD17"/>
     <mergeCell ref="P12:S13"/>
     <mergeCell ref="P16:S17"/>
+    <mergeCell ref="Y12:AB13"/>
+    <mergeCell ref="AI12:AL13"/>
+    <mergeCell ref="AG16:AJ17"/>
+    <mergeCell ref="P8:S9"/>
+    <mergeCell ref="V16:Y17"/>
+    <mergeCell ref="BD16:BG17"/>
+    <mergeCell ref="BW8:BZ9"/>
+    <mergeCell ref="BR12:BU13"/>
+    <mergeCell ref="CC12:CF13"/>
+    <mergeCell ref="BM16:BP17"/>
+    <mergeCell ref="BR16:BU17"/>
+    <mergeCell ref="BW16:BZ17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3181,15 +4182,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59A2586-6ECE-4B56-BB06-F46D832F53C5}">
-  <dimension ref="B4:AW54"/>
+  <dimension ref="B4:BF54"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4:Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <sheetData>
-    <row r="4" spans="2:40" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3201,12 +4202,12 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="18"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
@@ -3223,7 +4224,7 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
-    <row r="5" spans="2:40" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -3239,10 +4240,10 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="21"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="43"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -3259,7 +4260,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="2:40" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3291,15 +4292,19 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-    </row>
-    <row r="7" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+    </row>
+    <row r="7" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3312,7 +4317,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="2"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="28"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -3330,8 +4335,9 @@
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
-    </row>
-    <row r="8" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AR7" s="5"/>
+    </row>
+    <row r="8" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3341,12 +4347,12 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -3355,19 +4361,31 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="16" t="s">
+      <c r="AF8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="18"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="40"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-    </row>
-    <row r="9" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AQ8" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="40"/>
+      <c r="AW8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="40"/>
+    </row>
+    <row r="9" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3377,10 +4395,10 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
@@ -3394,17 +4412,25 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="21"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="43"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-    </row>
-    <row r="10" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="43"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="43"/>
+    </row>
+    <row r="10" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3443,8 +4469,9 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
-    </row>
-    <row r="11" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AR10" s="1"/>
+    </row>
+    <row r="11" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="2"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3483,103 +4510,124 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
-    </row>
-    <row r="12" spans="2:40" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="16" t="s">
+      <c r="AR11" s="2"/>
+    </row>
+    <row r="12" spans="2:52" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="L12" s="10" t="s">
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="10" t="s">
+      <c r="V12" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="12"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="18"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="40"/>
       <c r="AE12" s="4"/>
-      <c r="AF12" s="16" t="s">
+      <c r="AF12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="18"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40"/>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="16" t="s">
+      <c r="AK12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="18"/>
-    </row>
-    <row r="13" spans="2:40" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="40"/>
+      <c r="AQ12" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="40"/>
+      <c r="AW12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="40"/>
+    </row>
+    <row r="13" spans="2:52" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="15"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="15"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="37"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="37"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="21"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="43"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="20"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="21"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="43"/>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="20"/>
-      <c r="AM13" s="20"/>
-      <c r="AN13" s="21"/>
-    </row>
-    <row r="14" spans="2:40" ht="20.100000000000001" customHeight="1">
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="43"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="42"/>
+      <c r="AS13" s="42"/>
+      <c r="AT13" s="43"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="42"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="43"/>
+    </row>
+    <row r="14" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3593,11 +4641,11 @@
       <c r="M14" s="1"/>
       <c r="N14" s="4"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="23"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="23"/>
+      <c r="W14" s="11"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
@@ -3611,7 +4659,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="2:40" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:52" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3624,11 +4672,11 @@
       <c r="L15" s="4"/>
       <c r="M15" s="2"/>
       <c r="Q15" s="9"/>
-      <c r="R15" s="24"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="V15" s="9"/>
-      <c r="W15" s="24"/>
+      <c r="W15" s="12"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
@@ -3642,122 +4690,133 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="2:40" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:52" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="L16" s="10" t="s">
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="L16" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="22"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="10"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="25"/>
+      <c r="R16" s="13"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="24"/>
-      <c r="AA16" s="16" t="s">
+      <c r="W16" s="12"/>
+      <c r="AA16" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="18"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
       <c r="AE16" s="4"/>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="16" t="s">
+      <c r="AK16" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="18"/>
-    </row>
-    <row r="17" spans="2:49" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="40"/>
+      <c r="AW16" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX16" s="33"/>
+      <c r="AY16" s="33"/>
+      <c r="AZ16" s="34"/>
+    </row>
+    <row r="17" spans="2:58" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="15"/>
-      <c r="R17" s="24"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="R17" s="12"/>
       <c r="U17" s="4"/>
-      <c r="W17" s="24"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="21"/>
+      <c r="W17" s="12"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="43"/>
       <c r="AE17" s="4"/>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="21"/>
-    </row>
-    <row r="18" spans="2:49" ht="20.100000000000001" customHeight="1">
-      <c r="D18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" spans="2:49" ht="20.100000000000001" customHeight="1">
-      <c r="D19" s="24"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-    </row>
-    <row r="21" spans="2:49" ht="20.100000000000001" customHeight="1">
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="43"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="37"/>
+      <c r="BF17" s="4"/>
+    </row>
+    <row r="18" spans="2:58" ht="20.100000000000001" customHeight="1">
+      <c r="D18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
+      <c r="W18" s="12"/>
+    </row>
+    <row r="19" spans="2:58" ht="20.100000000000001" customHeight="1">
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="21" spans="2:58" ht="20.100000000000001" customHeight="1">
       <c r="I21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="2:49" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:58" ht="20.100000000000001" customHeight="1">
       <c r="I22" s="4"/>
       <c r="AA22" s="4"/>
     </row>
-    <row r="30" spans="2:49" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:58" ht="20.100000000000001" customHeight="1">
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3790,7 +4849,7 @@
       <c r="AV30" s="4"/>
       <c r="AW30" s="4"/>
     </row>
-    <row r="31" spans="2:49" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:58" ht="20.100000000000001" customHeight="1">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -3823,7 +4882,7 @@
       <c r="AV31" s="4"/>
       <c r="AW31" s="4"/>
     </row>
-    <row r="32" spans="2:49" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:58" ht="20.100000000000001" customHeight="1">
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -4043,7 +5102,7 @@
       <c r="AB54" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="21">
     <mergeCell ref="AK16:AN17"/>
     <mergeCell ref="G12:J13"/>
     <mergeCell ref="AF8:AI9"/>
@@ -4051,15 +5110,20 @@
     <mergeCell ref="L12:O13"/>
     <mergeCell ref="Q12:T13"/>
     <mergeCell ref="V12:Y13"/>
+    <mergeCell ref="AK12:AN13"/>
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="L8:O9"/>
     <mergeCell ref="V4:Y5"/>
     <mergeCell ref="AF12:AI13"/>
     <mergeCell ref="B12:E13"/>
     <mergeCell ref="AA12:AD13"/>
-    <mergeCell ref="AK12:AN13"/>
     <mergeCell ref="G16:J17"/>
     <mergeCell ref="AA16:AD17"/>
+    <mergeCell ref="AQ8:AT9"/>
+    <mergeCell ref="AQ12:AT13"/>
+    <mergeCell ref="AW8:AZ9"/>
+    <mergeCell ref="AW12:AZ13"/>
+    <mergeCell ref="AW16:AZ17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4068,11 +5132,935 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBBF2EE-1C51-4D77-820C-77AE5C62248A}">
+  <dimension ref="B1:AE95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="I1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="I2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="4" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="O4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="43"/>
+    </row>
+    <row r="6" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="C7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+      <c r="L8" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="R8" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="W8" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="40"/>
+      <c r="AB8" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+    </row>
+    <row r="9" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="43"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="43"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="43"/>
+    </row>
+    <row r="13" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="J13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:31" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="J17" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="R17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+    </row>
+    <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C19" s="1"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="G21" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="M21" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="R21" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="34"/>
+    </row>
+    <row r="22" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+    </row>
+    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="L27" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="40"/>
+    </row>
+    <row r="28" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="L28" s="41"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="43"/>
+    </row>
+    <row r="29" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C30" s="2"/>
+      <c r="K30" s="5"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="J31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="U31" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="34"/>
+    </row>
+    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="37"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="37"/>
+    </row>
+    <row r="33" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="C33" s="1"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="C34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="N34" s="5"/>
+      <c r="S34" s="2"/>
+      <c r="Y34" s="5"/>
+    </row>
+    <row r="35" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="G35" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="40"/>
+      <c r="M35" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="40"/>
+      <c r="R35" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="40"/>
+      <c r="X35" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="34"/>
+    </row>
+    <row r="36" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="43"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="43"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="43"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="37"/>
+    </row>
+    <row r="41" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="G41" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="C44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="G45" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="34"/>
+      <c r="L45" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="37"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="C47" s="1"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="2:28" ht="20.100000000000001" customHeight="1">
+      <c r="C48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="34"/>
+      <c r="L49" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="34"/>
+    </row>
+    <row r="50" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="37"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="55" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="J55" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="40"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+    </row>
+    <row r="56" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="J56" s="41"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
+      <c r="T56" s="4"/>
+    </row>
+    <row r="57" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="4"/>
+    </row>
+    <row r="58" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C58" s="2"/>
+      <c r="I58" s="4"/>
+      <c r="K58" s="2"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="4"/>
+    </row>
+    <row r="59" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="40"/>
+      <c r="R59" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="40"/>
+    </row>
+    <row r="60" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="43"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="43"/>
+    </row>
+    <row r="61" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C61" s="1"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="N62" s="5"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
+      <c r="M63" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="34"/>
+      <c r="R63" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="40"/>
+    </row>
+    <row r="64" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="37"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="37"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="43"/>
+      <c r="W64" s="4"/>
+    </row>
+    <row r="68" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="G68" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+    </row>
+    <row r="70" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="G72" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
+      <c r="O72" s="40"/>
+    </row>
+    <row r="73" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="41"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="43"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="43"/>
+    </row>
+    <row r="74" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
+      <c r="G76" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="34"/>
+      <c r="L76" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="40"/>
+    </row>
+    <row r="77" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="41"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="43"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="37"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="43"/>
+    </row>
+    <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
+    </row>
+    <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="41"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
+    </row>
+    <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
+    </row>
+    <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B87" s="41"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="43"/>
+    </row>
+    <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B90" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+    </row>
+    <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="K95" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="R63:U64"/>
+    <mergeCell ref="W8:Z9"/>
+    <mergeCell ref="O4:R5"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="L27:O28"/>
+    <mergeCell ref="J55:M56"/>
+    <mergeCell ref="U31:X32"/>
+    <mergeCell ref="L45:O46"/>
+    <mergeCell ref="R35:U36"/>
+    <mergeCell ref="X35:AA36"/>
+    <mergeCell ref="L49:O50"/>
+    <mergeCell ref="G35:J36"/>
+    <mergeCell ref="R17:U18"/>
+    <mergeCell ref="M21:P22"/>
+    <mergeCell ref="G21:J22"/>
+    <mergeCell ref="G8:J9"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="R21:U22"/>
+    <mergeCell ref="L72:O73"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="B63:E64"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="G45:J46"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="B49:E50"/>
+    <mergeCell ref="G63:J64"/>
+    <mergeCell ref="M63:P64"/>
+    <mergeCell ref="J59:M60"/>
+    <mergeCell ref="R59:U60"/>
+    <mergeCell ref="R8:U9"/>
+    <mergeCell ref="AB8:AE9"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="G76:J77"/>
+    <mergeCell ref="L76:O77"/>
+    <mergeCell ref="B86:E87"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="G68:J69"/>
+    <mergeCell ref="B82:E83"/>
+    <mergeCell ref="B72:E73"/>
+    <mergeCell ref="G72:J73"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="M35:P36"/>
+    <mergeCell ref="B35:E36"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53534405-D08B-4BB8-9AD3-8EDB4694B704}">
   <dimension ref="C7:AS13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4080,90 +6068,90 @@
     <row r="7" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="22"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="22"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="22"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="10"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="16" t="s">
+      <c r="AD7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="22"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="10"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="16" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="22"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="40"/>
+      <c r="AN7" s="10"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="16" t="s">
+      <c r="AP7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="18"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="40"/>
     </row>
     <row r="8" spans="3:45" ht="20.100000000000001" customHeight="1">
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="21"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="21"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="21"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="21"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="21"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="43"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="43"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="43"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="43"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="43"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="43"/>
     </row>
     <row r="9" spans="3:45" ht="20.100000000000001" customHeight="1">
       <c r="K9" s="4"/>
@@ -4189,4 +6177,380 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0011DD6C-EF93-42EF-A09E-7FF90D366366}">
+  <dimension ref="B2:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="19.5" thickTop="1">
+      <c r="B4" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="2:13" ht="19.5" thickBot="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" thickTop="1">
+      <c r="B15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>